--- a/SCH-STH/Impact assessments/Senegal/2024/oct 2024/sn_sch_sth_impact_202410_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/oct 2024/sn_sch_sth_impact_202410_2_child.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AACE5-075D-4363-97DB-EF877FD66172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B0A46-C688-4A32-932D-B5DC732D2AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,10 +645,10 @@
     <t>Le message introductif est utile pour aider l'enquêteur à se remémorer le contexte de l'enquête. Cependant, j'ai quelques suggestions concernant le texte : remplacer "Ministère de la santé" par "Ministère de la santé et de l'action sociale", utiliser "votre école/village" au lieu de "votre école" pour les sites sans écoles, et substituer "l'enquête scolaire/communautaire" à "l'enquête scolaire". Pour la partie sur le traitement, remplacer "vous recevrez immédiatement des médicaments vermifuges" par "vous recevrez immédiatement des médicaments", car il ne s'agit pas uniquement de vermifuges. Ensuite, remplacer "diagnostic de vers" par "en cas de résultat positif" pour la SCH, qui consiste plutôt en la détection d'oeufs dans les urines ou les selles. Enfin, il pourrait être judicieux de poser la question 12, portant sur la fréquentation des marigots, mares et rivières, après les questions 13 et 14, qui traitent des connaissances sur la maladie et ses manifestations.</t>
   </si>
   <si>
-    <t>(2024 Mar) - 2. SCH/STH – Participant V3</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_202403_2_child_v3</t>
+    <t>(2024 Oct) - 2. SCH/STH – Participant</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_202410_2_child</t>
   </si>
 </sst>
 </file>
